--- a/biology/Botanique/Rose_d'or/Rose_d'or.xlsx
+++ b/biology/Botanique/Rose_d'or/Rose_d'or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rose_d%27or</t>
+          <t>Rose_d'or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Rose d'or est un ornement béni par le pape, destiné à honorer des souverains ou des sanctuaires catholiques. Comme son nom l'indique, il représente une rose, un bouquet de roses ou un petit rosier en or massif. Il était attribué chaque année par le pape le quatrième dimanche de Carême à un souverain ou seigneur, puis plutôt à une reine ou épouse de roi (à partir du XVIIe siècle), et depuis la seconde moitié du XXe siècle, à des églises ou sanctuaires. Depuis le XXIe siècle, ce sont essentiellement des sanctuaires mariaux qui ont reçu cette distinction.
 La fleur d'or et sa splendeur éclatante symbolise le Christ et Sa Majesté Royale. Le rouge (et les épines) symbolise plus particulièrement sa Passion, différents éléments de la fleur et de l’œuvre (parfum, tige, fleurs), ont des interprétations symboliques et bibliques que le pape détaille et précise dans la lettre accompagnant le don de l’œuvre.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rose_d%27or</t>
+          <t>Rose_d'or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,18 +528,93 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Définition
-La rose d'or est un ornement béni par le pape, cadeau destiné à honorer des souverains ou des sanctuaires catholiques. Comme son nom l'indique, il représente une rose, un bouquet de roses ou un petit rosier en or massif. Il était attribué principalement à un souverain, plus tard à une épouse de souverain ou une reine, et depuis le milieu du XXe siècle, uniquement à des sanctuaires ou des églises. Cette rose était offerte chaque année par le pape à l'occasion du quatrième dimanche de Carême[1].
-Symbolique
-Les significations de la rose sont liées à celle du dimanche de Lætare (quatrième du carême), le jour où cette rose est traditionnellement bénie.
-Ce dimanche est souvent appelé « dimanche de rose », et la couleur des vêtements liturgiques utilisés est normalement le rose[2]. L’Église catholique, durant ce dimanche particulier invite les fidèles « à lever les yeux et au-delà du calvaire et voir dans les premiers rayons du soleil de Pâques, le Christ ressuscité, qui leur apporte la rédemption, et le message : Réjouis-toi »[3].
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rose d'or est un ornement béni par le pape, cadeau destiné à honorer des souverains ou des sanctuaires catholiques. Comme son nom l'indique, il représente une rose, un bouquet de roses ou un petit rosier en or massif. Il était attribué principalement à un souverain, plus tard à une épouse de souverain ou une reine, et depuis le milieu du XXe siècle, uniquement à des sanctuaires ou des églises. Cette rose était offerte chaque année par le pape à l'occasion du quatrième dimanche de Carême.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rose_d'or</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Représentation et symbolique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les significations de la rose sont liées à celle du dimanche de Lætare (quatrième du carême), le jour où cette rose est traditionnellement bénie.
+Ce dimanche est souvent appelé « dimanche de rose », et la couleur des vêtements liturgiques utilisés est normalement le rose. L’Église catholique, durant ce dimanche particulier invite les fidèles « à lever les yeux et au-delà du calvaire et voir dans les premiers rayons du soleil de Pâques, le Christ ressuscité, qui leur apporte la rédemption, et le message : Réjouis-toi ».
 La rose d'or matérialise des éléments symboliques : la fleur d'or et sa splendeur éclatante symbolise le Christ et Sa Majesté Royale.
-Le rouge symbolise plus particulièrement sa Passion. On interprète en ce sens un verset du Cantique des cantiques : « Je suis la fleur des champs et le lis des vallées »[4], ou encore un verset du livre d'Isaïe : « et il sortira un rejeton de la souche de Jésée, et une branche de ses racines fructifiera »[5]. Le parfum de la rose, selon le pape Léon XIII, « montre la douce odeur du Christ qui devrait être largement diffusée par son fidèles disciples ». Innocent III a écrit pour sa part : « Comme le dimanche de Lætare, qui symbolise l'amour après la haine, la joie après le chagrin et la plénitude après la faim, la rose représente respectivement par sa couleur, son odeur et son goût, son amour, sa joie et sa satiété ». Cette signification mystique est présente dans les lettres accompagnant la rose, ou encore dans les sermons prononcés le dimanche de Lætare[3].
-Description
-La plus ancienne représentation connue d'une rose d'or (XIIIe siècle) est une rose seule portant en son cœur une petite coupe ajourée contenant du baume et du musc.
-Si la rose est toujours restée en or pur, sa forme, sa composition, la décoration, la taille, le poids et la valeur de l’œuvre d'art ont varié suivant les époques (la situation économique, et les ressources de la papauté). À l'origine, l’œuvre mesurait un peu plus de 15 cm de hauteur et elle était facilement transportée dans la main gauche du pape, tandis qu'avec sa droite, il bénissait la foule lors de la procession de la basilique Sainte-Croix-de-Jérusalem (à Rome) jusqu'au palais du Latran[M 1]. Par la suite, et surtout lorsqu'un vase et un grand piédestal sont devenus partie intégrante de l'ornement (ce qui portait le tout à plusieurs kilos), il a fallu un clerc robuste pour porter l’œuvre durant la procession[3].
-Avec Sixte IV (XVe siècle), le dessin se complique : la rose d'or représente également des tiges épineuses, des feuilles ou encore des bourgeons ; des pierres précieuses sont serties dans le bijou. On ajoute ensuite un piédestal et un vase. Ainsi, en 1668, la rose d'or envoyée par Clément IX à Marie-Thérèse d'Autriche, épouse de Louis XIV, pesait 4 kilos, celle envoyée par Innocent XI ((XVIIe siècle) pesait environ 10 kilos d'or, elle mesurait presque 45 cm de haut, et avait la forme d'un bouquet[3].
-Le piédestal pouvait être soit triangulaire, soit quadrangulaire voire octogonal. Le pied était richement orné de divers motifs et bas-reliefs. En plus de l'inscription habituelle, on ajoutait également les armoiries du pape (qui l'offrait), et parfois celles du prélat qui l'apportait à son destinataire[3].
+Le rouge symbolise plus particulièrement sa Passion. On interprète en ce sens un verset du Cantique des cantiques : « Je suis la fleur des champs et le lis des vallées », ou encore un verset du livre d'Isaïe : « et il sortira un rejeton de la souche de Jésée, et une branche de ses racines fructifiera ». Le parfum de la rose, selon le pape Léon XIII, « montre la douce odeur du Christ qui devrait être largement diffusée par son fidèles disciples ». Innocent III a écrit pour sa part : « Comme le dimanche de Lætare, qui symbolise l'amour après la haine, la joie après le chagrin et la plénitude après la faim, la rose représente respectivement par sa couleur, son odeur et son goût, son amour, sa joie et sa satiété ». Cette signification mystique est présente dans les lettres accompagnant la rose, ou encore dans les sermons prononcés le dimanche de Lætare.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rose_d'or</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Représentation et symbolique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus ancienne représentation connue d'une rose d'or (XIIIe siècle) est une rose seule portant en son cœur une petite coupe ajourée contenant du baume et du musc.
+Si la rose est toujours restée en or pur, sa forme, sa composition, la décoration, la taille, le poids et la valeur de l’œuvre d'art ont varié suivant les époques (la situation économique, et les ressources de la papauté). À l'origine, l’œuvre mesurait un peu plus de 15 cm de hauteur et elle était facilement transportée dans la main gauche du pape, tandis qu'avec sa droite, il bénissait la foule lors de la procession de la basilique Sainte-Croix-de-Jérusalem (à Rome) jusqu'au palais du Latran[M 1]. Par la suite, et surtout lorsqu'un vase et un grand piédestal sont devenus partie intégrante de l'ornement (ce qui portait le tout à plusieurs kilos), il a fallu un clerc robuste pour porter l’œuvre durant la procession.
+Avec Sixte IV (XVe siècle), le dessin se complique : la rose d'or représente également des tiges épineuses, des feuilles ou encore des bourgeons ; des pierres précieuses sont serties dans le bijou. On ajoute ensuite un piédestal et un vase. Ainsi, en 1668, la rose d'or envoyée par Clément IX à Marie-Thérèse d'Autriche, épouse de Louis XIV, pesait 4 kilos, celle envoyée par Innocent XI ((XVIIe siècle) pesait environ 10 kilos d'or, elle mesurait presque 45 cm de haut, et avait la forme d'un bouquet.
+Le piédestal pouvait être soit triangulaire, soit quadrangulaire voire octogonal. Le pied était richement orné de divers motifs et bas-reliefs. En plus de l'inscription habituelle, on ajoutait également les armoiries du pape (qui l'offrait), et parfois celles du prélat qui l'apportait à son destinataire.
 			Rose d'or conservée dans le Museo dell'Opera del Duomo (Sienne).
 			Détail du pied de la rose d'or commandée par le pape Jean XXII (1316-1334) et offerte à Rodolphe III de Nidau. Provient du trésor de la cathédrale de Bâle.
 			Détail du bouquet de la rose d'or décernée par le pape Jean XXII à Rodolphe III de Nidau. Œuvre conservée dans l'Hôtel de Cluny (Paris).
@@ -537,70 +624,144 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rose_d%27or</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rose_d'or</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux tout débuts, la rose d'or fut souvent offerte au préfet de Rome. Plus tard, l'usage prévalut de l'envoyer à un roi ou un prince qui s'était illustré par sa valeur, puis à une princesse renommée pour sa vertu ou sa charité envers les pauvres. Durant un certain temps, les empereurs d'Allemagne la reçurent à l'époque de leur couronnement. Lorsque le Saint-Siège fut établi à Avignon, on eut l'usage d'offrir la rose d'or à la personne la plus digne qui se trouvait présente à la cour pontificale durant l'époque du carême.
-Au moyen âge
-La date exacte de l'institution de la « rose d'or » est inconnue, et elle est l'objet de controverses. Selon certains, elle est antérieure à Charlemagne (742-814) et remonterait même au Ve siècle, ou bien daterait de la fin du VIIIe siècle. Selon d'autres, elle a son origine à la fin du XIIe siècle[M 2]. Il est cependant certain qu'elle est antérieure à l'an 1050, puisque le pape Léon IX (1051) parle de la rose comme d'une ancienne institution à son époque. La « bénédiction de la rose » est cependant postérieure à cette date. Elle a été mise en place pour rendre la cérémonie plus solennelle et induire une plus grande révérence du pape vis-à-vis du destinataire[M 3]. Selon le cardinal Petra[6], le pape Innocent IV (1245-54) fut le premier à pratiquer cette bénédiction. Mais d'autres personnes estiment que cet usage a été mis en place par Innocent III (1198-1216), ou Alexandre III (1159-81), ou Léon IX (1049-55). Il n'y a pas de consensus sur la question. Si la date de la première bénédiction fluctue suivant les sources du XIIe siècle au XVe siècle (d'après un écrit du pape Benoît XIV) (1758). Cependant, le pape n'utilisait pas une nouvelle rose chaque année : il pouvait réutiliser la rose de l'année précédente, jusqu'à ce qu'une nouvelle rose lui soit offerte (ou fabriquée)[3].
-La rose d'or apparaît dès le début du Moyen Âge. La première mention attestée est une bulle de 1051, dans laquelle Léon IX exige des religieuses du couvent de Sainte-Croix de Woffenheim (Alsace), l'envoi d'une rose d'or à bénir et à porter par le pape le dimanche de Lætare[7],[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rose_d'or</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Au moyen âge</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La date exacte de l'institution de la « rose d'or » est inconnue, et elle est l'objet de controverses. Selon certains, elle est antérieure à Charlemagne (742-814) et remonterait même au Ve siècle, ou bien daterait de la fin du VIIIe siècle. Selon d'autres, elle a son origine à la fin du XIIe siècle[M 2]. Il est cependant certain qu'elle est antérieure à l'an 1050, puisque le pape Léon IX (1051) parle de la rose comme d'une ancienne institution à son époque. La « bénédiction de la rose » est cependant postérieure à cette date. Elle a été mise en place pour rendre la cérémonie plus solennelle et induire une plus grande révérence du pape vis-à-vis du destinataire[M 3]. Selon le cardinal Petra, le pape Innocent IV (1245-54) fut le premier à pratiquer cette bénédiction. Mais d'autres personnes estiment que cet usage a été mis en place par Innocent III (1198-1216), ou Alexandre III (1159-81), ou Léon IX (1049-55). Il n'y a pas de consensus sur la question. Si la date de la première bénédiction fluctue suivant les sources du XIIe siècle au XVe siècle (d'après un écrit du pape Benoît XIV) (1758). Cependant, le pape n'utilisait pas une nouvelle rose chaque année : il pouvait réutiliser la rose de l'année précédente, jusqu'à ce qu'une nouvelle rose lui soit offerte (ou fabriquée).
+La rose d'or apparaît dès le début du Moyen Âge. La première mention attestée est une bulle de 1051, dans laquelle Léon IX exige des religieuses du couvent de Sainte-Croix de Woffenheim (Alsace), l'envoi d'une rose d'or à bénir et à porter par le pape le dimanche de Lætare,.
 La chronique de saint Martin de Tours mentionne le plus ancien don connu d'une rose d'or par le pape : don d'Urbain II au comte Foulque IV d'Anjou, en 1096. Dès le bas Moyen Âge, le don d'une rose d'or pour honorer un souverain supplante le don des « clefs de Pierre », institué au VIIIe siècle.
-La rose est traditionnellement portée en procession, de la basilique Sainte-Croix-de-Jérusalem jusqu'au palais du Latran, lors du dimanche de Lætare (quatrième dimanche de Carême), également appelé dimanche de la Rose pour cette raison. Elle est d'abord portée par le pape lui-même. Par la suite, quand le poids de la rose augmente, un clerc est chargé de cette tâche. C'est à cette occasion que le pape bénit, dans la sacristie de basilique Sainte-Croix, le baume et le musc destinés à la rose, avant que celle-ci ne soit portée par un ablégat à son destinataire, ou remise à un ambassadeur résident. En 1895, la charge de porter la rose d'or est confiée à un camérier secret de cape et d'épée[3].
-Au XXe siècle
-À l'époque contemporaine, Jean-Paul II a remis des roses d'or à de nombreux sanctuaires dédiés à la Vierge Marie, comme celui de Lourdes en France, d'Aparecida au Brésil ou de Guadalupe au Mexique. Le pape Benoît XVI a notamment donné la rose d'or en 2006, au Sanctuaire de Jasna Góra (Vierge de Czestochowa) en Pologne ; en 2007 à la basilique d'Aparecida (Brésil) ; en 2010 au sanctuaire de Fátima (Portugal) et en 2011 au sanctuaire de Notre-Dame de Montaigu (Belgique).
+La rose est traditionnellement portée en procession, de la basilique Sainte-Croix-de-Jérusalem jusqu'au palais du Latran, lors du dimanche de Lætare (quatrième dimanche de Carême), également appelé dimanche de la Rose pour cette raison. Elle est d'abord portée par le pape lui-même. Par la suite, quand le poids de la rose augmente, un clerc est chargé de cette tâche. C'est à cette occasion que le pape bénit, dans la sacristie de basilique Sainte-Croix, le baume et le musc destinés à la rose, avant que celle-ci ne soit portée par un ablégat à son destinataire, ou remise à un ambassadeur résident. En 1895, la charge de porter la rose d'or est confiée à un camérier secret de cape et d'épée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rose_d'or</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Au XXe siècle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'époque contemporaine, Jean-Paul II a remis des roses d'or à de nombreux sanctuaires dédiés à la Vierge Marie, comme celui de Lourdes en France, d'Aparecida au Brésil ou de Guadalupe au Mexique. Le pape Benoît XVI a notamment donné la rose d'or en 2006, au Sanctuaire de Jasna Góra (Vierge de Czestochowa) en Pologne ; en 2007 à la basilique d'Aparecida (Brésil) ; en 2010 au sanctuaire de Fátima (Portugal) et en 2011 au sanctuaire de Notre-Dame de Montaigu (Belgique).
 Le pape François a offert à quatre reprises une rose d'or à un sanctuaire marial : à la basilique Notre-Dame-de-Charité d'El Cobre (Cuba), en septembre 2015 ; à Notre-Dame de Guadalupe (Mexique), en février 2016 ; à Notre-Dame de Częstochowa (Pologne), en juillet 2016 ; et à Notre-Dame de Fátima (Portugal) pour le centenaire des apparitions, en mai 2017.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rose_d%27or</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rose_d'or</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Exemplaires subsistants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La plupart des roses d'or anciennes ont été fondues par leur destinataire (ou leurs successeurs), afin de récupérer l'or à des fins monétaires (en période de crise). Les exemplaires subsistant des roses anciennes sont donc peu nombreux. On peut les retrouver :
 dans le trésor de la cathédrale de Bénévent ;
@@ -613,59 +774,163 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rose_d%27or</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rose_d'or</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Les destinataires de roses d'or</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des roses d'or ont été décernées à des personnes - hommes, femmes et un couple marié - ainsi qu'à des États et des églises (ou sanctuaires).
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Des roses d'or ont été décernées à des personnes - hommes, femmes et un couple marié - ainsi qu'à des États et des églises (ou sanctuaires).
 Jusqu'au XVIe siècle, les roses d'or étaient généralement attribuées à des souverains (hommes). À partir du XVIe siècle, il est devenu plus courant de les attribuer à des femmes souveraines ou à des femmes de souverains. Francesco Loredan, Doge de Venise, fut le dernier homme à recevoir une rose d'or en 1759. La dernière femme (et dernière souveraine) à recevoir une rose d'or fut la grande-duchesse Charlotte de Luxembourg en 1956. À partir de cette date, seules des églises ou sanctuaires se sont vu remettre cette distinction. Toutes les roses offertes par le pape Benoît XVI (18 au total) ont été décernées (et uniquement) à des sanctuaires mariaux.
 Parmi les principales églises auxquelles la rose a été offerte, citons :
 la basilique Saint-Pierre avec cinq roses
-la basilique Saint-Jean-de-Latran avec quatre roses[8]
+la basilique Saint-Jean-de-Latran avec quatre roses
 la basilique Notre-Dame d'Aparecida, le sanctuaire de Fátima, le sanctuaire de Notre-Dame de Częstochowa avec trois roses
 Au XXe siècle, les papes Pie X, Benoît XV, Jean XXIII et Jean-Paul Ier n'ont pas décerné de rose d'or.
 Pie XI a relancé la pratique (en 1923) qui a été poursuivie par le pape Pie XII (en 1953).
 Paul VI (1963-1978) a décerné 5 roses
 Jean-Paul II (1978-2005) a décerné 9 roses
 Benoît XVI (2005-2013) a décerné 18 roses
-François a décerné 5 roses
-Du XIIe au XIVe siècle
-XVe siècle
+François a décerné 5 roses</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rose_d'or</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les destinataires de roses d'or</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>XVe siècle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Rose d'or conservée au trésor du palais Hofburg à Vienne (Autriche)
 			Rose d'or conservée au trésor de la Résidence de Munich (Allemagne)
 			Reliquaire de la bienheureuse Yolande de Pologne et la rose d'or (sur le côté droit), église des pères Franciscains à Gniezno (Pologne)
-XVIe siècle
-XVIIe siècle
-XVIIIe siècle
-XIXe siècle
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rose_d'or</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les destinataires de roses d'or</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>XIXe siècle</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Rose d'Or donnée par le pape Grégoire XVI en 1842 à la reine Marie II de Portugal.
 			Gravure représentant Mgr Domenico Maria Jacobini remettant la rose d'or à Amélie d'Orléans, reine du Portugal, dans la chapelle du Palácio das Necessidades le 4 juillet 1892.
 			Rose d'Or donnée par le pape Léon XIII en 1889 à la reine Isabelle du Brésil (Brésil), pour avoir aboli l'esclavage.
 			Peinture de Leon Wyczółkowski, réalisée en 1907, représentant la rose donnée en 1736 pour Marie-Josèphe, reine de Pologne, épouse d'Auguste III. La rose a été remise au trésor de la cathédrale, en 1801.
-XXe siècle
-XXIe siècle
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rose_d'or</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rose_d%27or</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les destinataires de roses d'or</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>XXIe siècle</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			La Rose d'or offerte par Benoît XVI à la basilique du sanctuaire national de l'Immaculée Conception (États-Unis).
 			Benoît XVI donnant une rose d'or au sanctuaire de Fátima (Portugal), le 12 mai 2010.
 			Le pape François remettant une rose d'or au sanctuaire de Fátima (Portugal), le 12 mai 2017.
